--- a/data/trans_bre/P59A-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P59A-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>4.113171625907924</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-0.4215826870414108</v>
+        <v>-0.4215826870414136</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.2762508000041718</v>
@@ -649,7 +649,7 @@
         <v>0.1842017341177461</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.02332475865682049</v>
+        <v>-0.02332475865682064</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-13.78281856937776</v>
+        <v>-13.41590570849739</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-9.970626576772574</v>
+        <v>-10.07989096879369</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-6.704749952161966</v>
+        <v>-7.428330000038367</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-9.260952027205562</v>
+        <v>-9.284552778233779</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.6687909900574457</v>
+        <v>-0.6665222420370696</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.3900188064647179</v>
+        <v>-0.3763275296651224</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.2430171095485805</v>
+        <v>-0.2582431588723039</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.3994663634843424</v>
+        <v>-0.4012565995526005</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.233980201226878</v>
+        <v>5.804670826315973</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>11.58989863437548</v>
+        <v>13.18759740665526</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14.78620231746707</v>
+        <v>15.14981139900366</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.170134743398808</v>
+        <v>7.67521007969309</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.5737003975659191</v>
+        <v>0.5339579789160231</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6873783445269901</v>
+        <v>0.7868443791374845</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8943614433639472</v>
+        <v>0.912099953027703</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.641348906472143</v>
+        <v>0.6285024969815107</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-8.127870049447386</v>
+        <v>-8.610229484785581</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-8.813139818881181</v>
+        <v>-9.778780839883188</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-8.800484857038136</v>
+        <v>-8.702465817574524</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-7.841513769051346</v>
+        <v>-7.651404528378317</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5401819690144506</v>
+        <v>-0.5665703656432455</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4741109116370278</v>
+        <v>-0.4816764977940935</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.616873754785825</v>
+        <v>-0.6137552290134078</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3283552746983639</v>
+        <v>-0.3229962380789563</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.134541472812022</v>
+        <v>4.850344654056796</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5.753439295608758</v>
+        <v>5.365605985811452</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.03830346040472</v>
+        <v>3.430966686643786</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8.625023973048004</v>
+        <v>8.577370752584981</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.7211891555498782</v>
+        <v>0.6062518333001283</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5326306078635118</v>
+        <v>0.4555774645897199</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4045040529692073</v>
+        <v>0.4625831537322465</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.6429991849546122</v>
+        <v>0.629658441731536</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-5.704657657854058</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.2510367545660142</v>
+        <v>0.2510367545660169</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.4062310472178595</v>
@@ -849,7 +849,7 @@
         <v>-0.3840218699602649</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.01888445836990491</v>
+        <v>0.01888445836990512</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-15.14454114304335</v>
+        <v>-16.11263175520003</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-8.956420535261442</v>
+        <v>-9.07297922258126</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-13.65774530010307</v>
+        <v>-13.73169710278785</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-7.391478476005899</v>
+        <v>-7.001635880765436</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.7199588277080126</v>
+        <v>-0.7334834811612216</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.66314680404287</v>
+        <v>-0.6352879616691995</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.6973503374998181</v>
+        <v>-0.7063979322908188</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.4079301037162335</v>
+        <v>-0.398550442775325</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.187011785475075</v>
+        <v>1.624967800044951</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.224835687052044</v>
+        <v>6.697207473252353</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.240004549784882</v>
+        <v>2.079080544096402</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.195049634608678</v>
+        <v>6.685057439882184</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.2620568253245207</v>
+        <v>0.205728152817443</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.059813871104319</v>
+        <v>1.039110224297049</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2618537277294352</v>
+        <v>0.1913252953124471</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.7879516442893861</v>
+        <v>0.741187874430416</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-9.232437395159126</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-7.616521756978731</v>
+        <v>-7.616521756978734</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.1254363053078917</v>
@@ -949,7 +949,7 @@
         <v>-0.2596205740027213</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.3036161898891188</v>
+        <v>-0.3036161898891189</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-9.822028575519937</v>
+        <v>-9.74872613765665</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-14.48871843236365</v>
+        <v>-14.0561932566588</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-20.35069734805109</v>
+        <v>-18.84623218103066</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-18.31312559186654</v>
+        <v>-17.87248691209469</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5115611429418857</v>
+        <v>-0.5000061991742364</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5321139524865975</v>
+        <v>-0.5006585155304962</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4845087985648425</v>
+        <v>-0.4716491901812716</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.568903594433451</v>
+        <v>-0.5453549844987093</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>6.22445229787232</v>
+        <v>5.954886364870758</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.476948226962599</v>
+        <v>5.890278256832697</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2239512050428044</v>
+        <v>0.7674941720579103</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.233251321774445</v>
+        <v>1.966693515023697</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6587319941800233</v>
+        <v>0.5860937996377147</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3503103748675023</v>
+        <v>0.3914210842864433</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01047619803132032</v>
+        <v>0.02441621384794684</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1481287710985559</v>
+        <v>0.1290736826952752</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-2.586831124753469</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2.626820327321129</v>
+        <v>2.626820327321125</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.1036355621224436</v>
@@ -1049,7 +1049,7 @@
         <v>-0.2466001332092406</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.3028888713697054</v>
+        <v>0.3028888713697048</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-11.9360496795975</v>
+        <v>-12.54417494865261</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-6.385436721621801</v>
+        <v>-8.013925987085271</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-11.64767599771006</v>
+        <v>-12.13548532061752</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-5.381341985073056</v>
+        <v>-4.826779007494665</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.5709309862203907</v>
+        <v>-0.6290176802459132</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.3702647970747394</v>
+        <v>-0.4544680157669749</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.7851550703143074</v>
+        <v>-0.8092293248872576</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.4106755442532774</v>
+        <v>-0.4263647598090103</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>10.61728464331264</v>
+        <v>10.46903485372657</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>15.67729579830682</v>
+        <v>13.803937260132</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.619644210611699</v>
+        <v>5.910481964654018</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9.868280318672925</v>
+        <v>10.07501022941095</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.081337752139206</v>
+        <v>0.958468780520854</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2.991729062490744</v>
+        <v>2.23858510031276</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.337387193847826</v>
+        <v>1.146027673413545</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2.169641147326476</v>
+        <v>2.191357254838557</v>
       </c>
     </row>
     <row r="19">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-14.12141299841232</v>
+        <v>-14.14277048522868</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-14.87703160322725</v>
+        <v>-15.80731652843625</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-7.939572356960752</v>
+        <v>-8.428115375020344</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-7.187281842065338</v>
+        <v>-6.904901894787566</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6177459283596239</v>
+        <v>-0.6321321849011382</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.8317838510031984</v>
+        <v>-0.875991810013008</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.7435770346974139</v>
+        <v>-0.7526356237804199</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.42282852413899</v>
+        <v>-0.4133040124976155</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>5.481411872705897</v>
+        <v>4.683112547915349</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>2.12540489669296</v>
+        <v>1.94055370621472</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>5.427869334872114</v>
+        <v>4.856466637391617</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>8.541686139705185</v>
+        <v>8.213983032992436</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.5133703410217599</v>
+        <v>0.4173503425834226</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.498518502846641</v>
+        <v>0.5697955739596954</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.64161950026362</v>
+        <v>1.291648322910018</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.00668711495838</v>
+        <v>0.9769875124924077</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-11.62950336929689</v>
+        <v>-11.25365974929003</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-5.684440010099951</v>
+        <v>-5.490927237632807</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-11.31057227812594</v>
+        <v>-11.52085170028076</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-6.227828820092989</v>
+        <v>-5.768563068526284</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.6514584494952727</v>
+        <v>-0.6339225917839663</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.2903320364710038</v>
+        <v>-0.2644162559075598</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.5284382305966432</v>
+        <v>-0.5340110484815019</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.3001933721222756</v>
+        <v>-0.2806696956537317</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.8141274551286947</v>
+        <v>1.160439871602265</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>7.69500454953391</v>
+        <v>8.361614264248987</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-0.3699751866461292</v>
+        <v>-0.3707386703721351</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.92946645495718</v>
+        <v>6.295733144064447</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.1261336694785073</v>
+        <v>0.1234113178182299</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5591827739193234</v>
+        <v>0.6303794066099219</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>-0.02239924296818119</v>
+        <v>-0.01992667958365394</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.4649828429213949</v>
+        <v>0.49162838580759</v>
       </c>
     </row>
     <row r="25">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-8.112244979719526</v>
+        <v>-8.128625768288376</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-5.968446887877161</v>
+        <v>-6.327667663744929</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-7.201751812518968</v>
+        <v>-7.483610866029151</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-13.23219151200122</v>
+        <v>-12.92485552086893</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.6149119636623364</v>
+        <v>-0.6077038839870371</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.424062433914237</v>
+        <v>-0.4165514135151509</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.3908353024475831</v>
+        <v>-0.3922532892910059</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.8078429924198582</v>
+        <v>-0.8031498965661129</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>1.902822958758755</v>
+        <v>1.653120958666866</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>4.424807396918497</v>
+        <v>4.826546562615653</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3.965319472339426</v>
+        <v>3.462600933251703</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>-4.037028127373665</v>
+        <v>-3.827211601470722</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2624261242573593</v>
+        <v>0.2149456157183996</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4841454757367081</v>
+        <v>0.5556946668861058</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3019229289021188</v>
+        <v>0.2710662286931138</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.3881496243461087</v>
+        <v>-0.382670488117214</v>
       </c>
     </row>
     <row r="28">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-5.913113556012548</v>
+        <v>-6.175897103345701</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.032375015185539</v>
+        <v>-3.763622350545692</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-6.113940870717893</v>
+        <v>-6.114077963842849</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-5.305654741909244</v>
+        <v>-5.171753864792089</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>-0.3961583765360256</v>
+        <v>-0.396289390896632</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>-0.2386808772358182</v>
+        <v>-0.22415747956322</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>-0.319985023224208</v>
+        <v>-0.3242043279242326</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>-0.2948579299857681</v>
+        <v>-0.2864056833765566</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-0.7260569705490457</v>
+        <v>-0.9473429071810846</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.787315250567715</v>
+        <v>2.084344010270078</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-0.7338346812901367</v>
+        <v>-0.6156683433757841</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-0.03053732024480053</v>
+        <v>0.1071978077594954</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>-0.05845348082100316</v>
+        <v>-0.0724978203360121</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1328784299572967</v>
+        <v>0.1537299489273419</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>-0.04446365603385387</v>
+        <v>-0.04423708959961689</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>-0.004505295027733954</v>
+        <v>0.0102864108848999</v>
       </c>
     </row>
     <row r="31">
